--- a/我的创作/股票/技术投资/SEAP交易系统/1年的区间涨跌幅前100.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/1年的区间涨跌幅前100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312">
   <si>
     <t>股票代码</t>
   </si>
@@ -36,12 +36,12 @@
 2020.12.09-2021.12.08</t>
   </si>
   <si>
+    <t>所属分类</t>
+  </si>
+  <si>
     <t>行业</t>
   </si>
   <si>
-    <t>行业2</t>
-  </si>
-  <si>
     <t>000422.SZ</t>
   </si>
   <si>
@@ -327,6 +327,9 @@
     <t>27/4640</t>
   </si>
   <si>
+    <t>化工合成材料</t>
+  </si>
+  <si>
     <t>600111.SH</t>
   </si>
   <si>
@@ -336,6 +339,9 @@
     <t>28/4640</t>
   </si>
   <si>
+    <t>食品加工制造</t>
+  </si>
+  <si>
     <t>000155.SZ</t>
   </si>
   <si>
@@ -345,6 +351,9 @@
     <t>29/4640</t>
   </si>
   <si>
+    <t>非金属材料</t>
+  </si>
+  <si>
     <t>002192.SZ</t>
   </si>
   <si>
@@ -354,6 +363,9 @@
     <t>30/4640</t>
   </si>
   <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
     <t>300604.SZ</t>
   </si>
   <si>
@@ -363,6 +375,9 @@
     <t>31/4640</t>
   </si>
   <si>
+    <t>计算机应用</t>
+  </si>
+  <si>
     <t>600032.SH</t>
   </si>
   <si>
@@ -372,6 +387,9 @@
     <t>32/4640</t>
   </si>
   <si>
+    <t>消费电子</t>
+  </si>
+  <si>
     <t>603396.SH</t>
   </si>
   <si>
@@ -381,6 +399,9 @@
     <t>33/4640</t>
   </si>
   <si>
+    <t>自动化设备</t>
+  </si>
+  <si>
     <t>605020.SH</t>
   </si>
   <si>
@@ -388,6 +409,9 @@
   </si>
   <si>
     <t>34/4640</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
   </si>
   <si>
     <t>600096.SH</t>
@@ -940,7 +964,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -957,6 +981,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1461,152 +1492,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1623,7 +1654,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2130,6 +2164,148 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2188,9 +2364,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>选股结果!$H$2:$H$24</c:f>
+              <c:f>选股结果!$H$2:$H$32</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>化学制品</c:v>
                 </c:pt>
@@ -2259,21 +2435,45 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>化学制药</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>化工合成材料</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>食品加工制造</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>非金属材料</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>建筑材料</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>计算机应用</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>消费电子</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>自动化设备</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>医疗器械</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>选股结果!$I$2:$I$24</c:f>
+              <c:f>选股结果!$I$2:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -2282,7 +2482,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -2291,13 +2491,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -2312,30 +2512,54 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2991,25 +3215,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>264160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>353060</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>576580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvPr id="15" name="图表 14"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9144000" y="353060"/>
-        <a:ext cx="5113020" cy="3848735"/>
+        <a:off x="9578340" y="374650"/>
+        <a:ext cx="4572000" cy="5596255"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3347,9 +3571,9 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H2" sqref="H2:I24"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3383,7 +3607,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3406,15 +3630,15 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I2">
         <f>COUNTIF(G:G,H2)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3436,15 +3660,15 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I24" si="0">COUNTIF(G:G,H3)</f>
-        <v>13</v>
+        <f t="shared" ref="I3:I32" si="0">COUNTIF(G:G,H3)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3466,10 +3690,10 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I4">
@@ -3496,10 +3720,10 @@
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I5">
@@ -3526,15 +3750,15 @@
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3556,10 +3780,10 @@
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I7">
@@ -3586,10 +3810,10 @@
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="I8">
@@ -3616,15 +3840,15 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3646,10 +3870,10 @@
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I10">
@@ -3676,15 +3900,15 @@
       <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3706,10 +3930,10 @@
       <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I12">
@@ -3736,10 +3960,10 @@
       <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="I13">
@@ -3766,10 +3990,10 @@
       <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I14">
@@ -3796,10 +4020,10 @@
       <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="I15">
@@ -3826,15 +4050,15 @@
       <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3856,10 +4080,10 @@
       <c r="F17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I17">
@@ -3886,15 +4110,15 @@
       <c r="F18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>75</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3916,15 +4140,15 @@
       <c r="F19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3946,15 +4170,15 @@
       <c r="F20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3976,10 +4200,10 @@
       <c r="F21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I21">
@@ -4006,15 +4230,15 @@
       <c r="F22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4036,10 +4260,10 @@
       <c r="F23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I23">
@@ -4066,18 +4290,18 @@
       <c r="F24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
@@ -4096,16 +4320,23 @@
       <c r="F25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4">
         <v>52.47</v>
@@ -4117,18 +4348,25 @@
         <v>304.548959136469</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4">
         <v>26.5</v>
@@ -4140,18 +4378,25 @@
         <v>303.963414634146</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C28" s="4">
         <v>126</v>
@@ -4163,18 +4408,25 @@
         <v>299.873056172644</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4">
         <v>59.54</v>
@@ -4186,18 +4438,25 @@
         <v>296.794107330754</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4">
         <v>16.63</v>
@@ -4209,18 +4468,25 @@
         <v>295.011876484561</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4">
         <v>142.1</v>
@@ -4232,18 +4498,25 @@
         <v>293.737877528401</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4">
         <v>32.71</v>
@@ -4255,18 +4528,25 @@
         <v>293.149038461538</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C33" s="4">
         <v>23.13</v>
@@ -4278,18 +4558,18 @@
         <v>291.370558375634</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4">
         <v>15.71</v>
@@ -4301,18 +4581,18 @@
         <v>289.826302729528</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C35" s="4">
         <v>15.09</v>
@@ -4324,18 +4604,18 @@
         <v>288.917525773196</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C36" s="4">
         <v>92.41</v>
@@ -4347,18 +4627,18 @@
         <v>288.76735380732</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4">
         <v>196.55</v>
@@ -4370,18 +4650,18 @@
         <v>286.985627091947</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C38" s="4">
         <v>28.59</v>
@@ -4393,18 +4673,18 @@
         <v>286.874154262517</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C39" s="4">
         <v>29.1</v>
@@ -4416,18 +4696,18 @@
         <v>277.431906614786</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C40" s="4">
         <v>33.77</v>
@@ -4439,18 +4719,18 @@
         <v>276.897321428571</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C41" s="4">
         <v>69.29</v>
@@ -4462,18 +4742,18 @@
         <v>276.576086956522</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C42" s="4">
         <v>110.02</v>
@@ -4485,18 +4765,18 @@
         <v>272.318104906937</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4">
         <v>75.2</v>
@@ -4508,18 +4788,18 @@
         <v>272.093023255814</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C44" s="4">
         <v>15.92</v>
@@ -4531,18 +4811,18 @@
         <v>270.232558139535</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C45" s="4">
         <v>23.79</v>
@@ -4554,18 +4834,18 @@
         <v>269.984447900467</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C46" s="4">
         <v>251.3</v>
@@ -4577,18 +4857,18 @@
         <v>266.861313868613</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4">
         <v>7.89</v>
@@ -4600,18 +4880,18 @@
         <v>265.277777777778</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C48" s="4">
         <v>34.48</v>
@@ -4623,18 +4903,18 @@
         <v>264.482029598309</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4">
         <v>23.1</v>
@@ -4646,18 +4926,18 @@
         <v>264.353312302839</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C50" s="4">
         <v>243.47</v>
@@ -4669,18 +4949,18 @@
         <v>261.445961995249</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C51" s="4">
         <v>614</v>
@@ -4692,18 +4972,18 @@
         <v>261.112744809739</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C52" s="4">
         <v>136.3</v>
@@ -4715,18 +4995,18 @@
         <v>257.180293501048</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G52" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C53" s="4">
         <v>540.64</v>
@@ -4738,18 +5018,18 @@
         <v>255.754425215503</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C54" s="4">
         <v>377.25</v>
@@ -4761,18 +5041,18 @@
         <v>253.657507663751</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C55" s="4">
         <v>190.6</v>
@@ -4784,18 +5064,18 @@
         <v>252.832284339134</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C56" s="4">
         <v>76.54</v>
@@ -4807,18 +5087,18 @@
         <v>252.718894009217</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C57" s="4">
         <v>151</v>
@@ -4830,18 +5110,18 @@
         <v>252.14552238806</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G57" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C58" s="4">
         <v>19.91</v>
@@ -4853,18 +5133,18 @@
         <v>251.146384479718</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G58" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C59" s="4">
         <v>31.9</v>
@@ -4876,18 +5156,18 @@
         <v>250.549450549451</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G59" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C60" s="4">
         <v>89.22</v>
@@ -4899,18 +5179,18 @@
         <v>249.471210340776</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G60" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C61" s="4">
         <v>39.72</v>
@@ -4922,17 +5202,18 @@
         <v>246.294681778553</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8">
+        <v>218</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C62" s="4">
         <v>77.33</v>
@@ -4944,17 +5225,18 @@
         <v>243.231247225921</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C63" s="4">
         <v>19.57</v>
@@ -4966,17 +5248,18 @@
         <v>241.535776614311</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C64" s="4">
         <v>57.15</v>
@@ -4988,17 +5271,18 @@
         <v>240.178571428571</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8">
+        <v>227</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C65" s="4">
         <v>48.6</v>
@@ -5010,17 +5294,18 @@
         <v>239.148639218423</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8">
+        <v>230</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C66" s="4">
         <v>25.31</v>
@@ -5032,17 +5317,18 @@
         <v>238.821954484605</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C67" s="4">
         <v>74.83</v>
@@ -5054,17 +5340,18 @@
         <v>236.768676867687</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C68" s="4">
         <v>63.42</v>
@@ -5076,17 +5363,18 @@
         <v>236.445623342175</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C69" s="4">
         <v>127.5</v>
@@ -5098,17 +5386,18 @@
         <v>236.322869955157</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C70" s="4">
         <v>15.28</v>
@@ -5120,17 +5409,18 @@
         <v>235.087719298246</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C71" s="4">
         <v>8.26</v>
@@ -5142,17 +5432,18 @@
         <v>233.064516129032</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C72" s="4">
         <v>60.14</v>
@@ -5164,17 +5455,18 @@
         <v>230.621220450797</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C73" s="4">
         <v>64.26</v>
@@ -5186,17 +5478,18 @@
         <v>230.385604113111</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C74" s="4">
         <v>29.11</v>
@@ -5208,17 +5501,18 @@
         <v>229.298642533937</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8">
+        <v>257</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C75" s="4">
         <v>24.54</v>
@@ -5230,17 +5524,18 @@
         <v>226.76431424767</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C76" s="4">
         <v>11.3</v>
@@ -5252,17 +5547,18 @@
         <v>226.589595375723</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:8">
+        <v>263</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C77" s="4">
         <v>22.7</v>
@@ -5274,17 +5570,18 @@
         <v>224.982104509664</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C78" s="4">
         <v>23.35</v>
@@ -5296,17 +5593,18 @@
         <v>223.407202216067</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C79" s="4">
         <v>53.93</v>
@@ -5318,17 +5616,18 @@
         <v>223.236561153774</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C80" s="4">
         <v>85.26</v>
@@ -5340,17 +5639,18 @@
         <v>221.614485099962</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="1:8">
+        <v>275</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C81" s="4">
         <v>23.54</v>
@@ -5362,17 +5662,18 @@
         <v>219.099905110479</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C82" s="4">
         <v>217.49</v>
@@ -5384,17 +5685,18 @@
         <v>217.781998831093</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C83" s="4">
         <v>39.7</v>
@@ -5406,17 +5708,18 @@
         <v>216.625766871154</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C84" s="4">
         <v>34.49</v>
@@ -5428,17 +5731,18 @@
         <v>216.131989000917</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C85" s="4">
         <v>46.49</v>
@@ -5450,17 +5754,18 @@
         <v>214.972899728997</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C86" s="4">
         <v>26.06</v>
@@ -5472,17 +5777,18 @@
         <v>213.975903614458</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C87" s="4">
         <v>18.85</v>
@@ -5494,17 +5800,18 @@
         <v>213.12292358804</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8">
+        <v>296</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C88" s="4">
         <v>22.45</v>
@@ -5516,17 +5823,18 @@
         <v>212.239221140473</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8">
+        <v>299</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C89" s="4">
         <v>114.36</v>
@@ -5538,17 +5846,18 @@
         <v>211.607629427793</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:8">
+        <v>302</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C90" s="4">
         <v>28.91</v>
@@ -5560,17 +5869,18 @@
         <v>209.528907922912</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="1:8">
+        <v>305</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C91" s="4">
         <v>108.8</v>
@@ -5582,17 +5892,18 @@
         <v>208.390022675737</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8">
+        <v>308</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="3" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C92" s="4">
         <v>241.14</v>
@@ -5604,10 +5915,11 @@
         <v>207.458880530409</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+        <v>311</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/1年的区间涨跌幅前100.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/1年的区间涨跌幅前100.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
@@ -960,8 +960,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1002,40 +1002,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1047,10 +1018,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,9 +1040,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,9 +1077,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,8 +1100,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,29 +1132,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,7 +1174,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +1210,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,97 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,61 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,15 +1388,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,6 +1440,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1475,165 +1481,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3216,13 +3216,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>469265</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
@@ -3232,7 +3232,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9578340" y="374650"/>
+        <a:off x="9577705" y="374650"/>
         <a:ext cx="4572000" cy="5596255"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3573,7 +3573,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H2" sqref="H2:I32"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
